--- a/RegModel/example/register_excel.xlsx
+++ b/RegModel/example/register_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\BaiDuDownload\Linux_EDA\gen_uvm_model\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\BaiDuDownload\Linux_EDA\RegModel\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98ECF5D-5D8E-4779-B4FA-86BBAF7DD636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8416892-00C0-4781-A308-C4635B60F749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,36 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+  <si>
+    <t>BLOCK NAME</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>REG NAME</t>
+  </si>
+  <si>
+    <t>OFFSET ADDRESS</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>RESET VALUE</t>
+  </si>
+  <si>
+    <t>ACCESS</t>
+  </si>
+  <si>
+    <t>REG DESC</t>
+  </si>
   <si>
     <t>SPI_TOP</t>
   </si>
@@ -33,10 +57,10 @@
     <t>spi_ctrl</t>
   </si>
   <si>
-    <t>0xACDB</t>
-  </si>
-  <si>
-    <t>field1</t>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>spi_ctrl0</t>
   </si>
   <si>
     <t>[0:1]</t>
@@ -51,7 +75,7 @@
     <t>field desc</t>
   </si>
   <si>
-    <t>field2</t>
+    <t>spi_ctrl1</t>
   </si>
   <si>
     <t>[2:3]</t>
@@ -63,117 +87,190 @@
     <t>R</t>
   </si>
   <si>
-    <t>field3</t>
+    <t>spi_ctrl2</t>
   </si>
   <si>
     <t>[4:5]</t>
   </si>
   <si>
-    <t>field4</t>
+    <t>spi_ctrl3</t>
   </si>
   <si>
     <t>[6:7]</t>
   </si>
   <si>
-    <t>field5</t>
+    <t>spi_ctrl4</t>
   </si>
   <si>
     <t>[8:9]</t>
   </si>
   <si>
-    <t>field6</t>
+    <t>spi_ctrl5</t>
   </si>
   <si>
     <t>[10:11]</t>
   </si>
   <si>
-    <t>field7</t>
+    <t>spi_ctrl6</t>
   </si>
   <si>
     <t>[12:13]</t>
   </si>
   <si>
-    <t>field8</t>
+    <t>spi_ctrl7</t>
   </si>
   <si>
     <t>[14:19]</t>
   </si>
   <si>
-    <t>field9</t>
+    <t>spi_ctrl8</t>
   </si>
   <si>
     <t>[20:31]</t>
   </si>
   <si>
-    <t>BLOCK NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFFSET ADDRESS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESET VALUE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCESS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG DESC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>spi_dat</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>spi_dat0</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>spi_dat1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>spi_dat2</t>
+  </si>
+  <si>
+    <t>[2:7]</t>
+  </si>
+  <si>
+    <t>spi_dat3</t>
+  </si>
+  <si>
+    <t>spi_dat4</t>
+  </si>
+  <si>
+    <t>[10:20]</t>
+  </si>
+  <si>
+    <t>spi_dat5</t>
+  </si>
+  <si>
+    <t>[21:31]</t>
+  </si>
+  <si>
+    <t>spi_clk</t>
+  </si>
+  <si>
+    <t>0x000A</t>
+  </si>
+  <si>
+    <t>spi_clk0</t>
+  </si>
+  <si>
+    <t>spi_clk1</t>
+  </si>
+  <si>
+    <t>[1:30]</t>
+  </si>
+  <si>
+    <t>spi_clk2</t>
+  </si>
+  <si>
+    <t>[31]</t>
   </si>
   <si>
     <t>UART_TOP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFA123456AA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEEEEAAAA</t>
   </si>
   <si>
     <t>uart_ctrl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2680</t>
+  </si>
+  <si>
+    <t>uart_ctrl0</t>
+  </si>
+  <si>
+    <t>uart_ctrl1</t>
+  </si>
+  <si>
+    <t>uart_ctrl2</t>
+  </si>
+  <si>
+    <t>uart_ctrl3</t>
+  </si>
+  <si>
+    <t>uart_ctrl4</t>
+  </si>
+  <si>
+    <t>uart_ctrl5</t>
+  </si>
+  <si>
+    <t>uart_ctrl6</t>
+  </si>
+  <si>
+    <t>uart_ctrl7</t>
+  </si>
+  <si>
+    <t>uart_ctrl8</t>
+  </si>
+  <si>
+    <t>uart_dat</t>
+  </si>
+  <si>
+    <t>uart_dat0</t>
+  </si>
+  <si>
+    <t>uart_dat1</t>
+  </si>
+  <si>
+    <t>uart_dat2</t>
+  </si>
+  <si>
+    <t>uart_dat3</t>
+  </si>
+  <si>
+    <t>uart_dat4</t>
+  </si>
+  <si>
+    <t>uart_dat5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -181,26 +278,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -208,10 +290,36 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,41 +347,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-000B-0000-0000-000036000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,484 +716,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="21.08984375" customWidth="1"/>
     <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="7" max="8" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>33</v>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
+    <row r="4" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
+    <row r="5" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
+    <row r="6" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="5"/>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
+    <row r="10" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="5"/>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
+    <row r="11" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5"/>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
+    <row r="16" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
+    <row r="17" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
+    <row r="18" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="5"/>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1"/>
+    <row r="22" spans="1:12" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="7" t="s">
+    <row r="23" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="5"/>
+      <c r="D23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="5"/>
+      <c r="D24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="5"/>
+      <c r="D25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="5"/>
+      <c r="D29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="5"/>
+      <c r="D30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="5"/>
+      <c r="D31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="5"/>
+      <c r="D32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="3:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="5"/>
+      <c r="D33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="11"/>
-    </row>
+      <c r="F33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="5"/>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="5"/>
+      <c r="D35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="5"/>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="5"/>
+      <c r="D37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="12.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="5"/>
+      <c r="D43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="5"/>
+      <c r="D44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="5"/>
+      <c r="D45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="5"/>
+      <c r="D46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="5"/>
+      <c r="D47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="3:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="5"/>
+      <c r="D48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" collapsed="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.51174154431801144" footer="0.51174154431801144"/>
+  <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1067,11 +1563,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.51174154431801144" footer="0.51174154431801144"/>
+  <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1081,10 +1577,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.51174154431801144" footer="0.51174154431801144"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>